--- a/data/cdc_lifetable_2022.xlsx
+++ b/data/cdc_lifetable_2022.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="123820"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{695D03DB-8F8D-A94C-B475-F0EEB33CDE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A7BF36-8BA4-4D4B-AFBA-A615FC9711A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="18820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="18820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 All" sheetId="1" r:id="rId1"/>
     <sheet name="Table 2 Male" sheetId="2" r:id="rId2"/>
     <sheet name="Table 3 Female" sheetId="3" r:id="rId3"/>
+    <sheet name="Reference" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Table 1 All'!$1:$3</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="120">
   <si>
     <t>100 and over</t>
   </si>
@@ -558,6 +559,9 @@
   <si>
     <t>Table 3. Life table for females: United States, 2022</t>
   </si>
+  <si>
+    <t>Arias, Elizabith, Jiaquan Xu, and Kenneth Kochanek. “United States Life Tables, 2022.” National Vital Statistics Report. Hyattsville, MD: National Center for Health Statistics, April 8, 2025. https://doi.org/10.15620/cdc/174575.</t>
+  </si>
 </sst>
 </file>
 
@@ -567,7 +571,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,6 +619,21 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -781,11 +800,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,6 +837,10 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -830,14 +854,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Tb 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -1156,18 +1180,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1190,7 +1214,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -3534,15 +3558,15 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
@@ -3584,18 +3608,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3618,8 +3642,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -3639,7 +3663,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="9">
@@ -5962,15 +5986,15 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
@@ -5997,7 +6021,7 @@
   <sheetPr transitionEvaluation="1"/>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -6011,18 +6035,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6045,8 +6069,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -6066,7 +6090,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="9">
@@ -8389,15 +8413,15 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
@@ -8435,4 +8459,30 @@
   <pageMargins left="0.7" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8235E9D3-2D6C-5D4A-8130-1DBF621BB7E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://doi.org/10.15620/cdc/174575" xr:uid="{ABFC3814-4E46-BF46-A50F-F14189375D6E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>